--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\PA_OutlookFerienassistent\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51DDE8FE-D9F6-46C0-9A58-F6589BAD9CE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07706F3-BF76-4B5E-946B-982326D12873}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE408360-987D-4BE2-AA40-DF582315BAC3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Zeitplanung-Soll" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Zeitplanung</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
   <si>
     <t>08:00 - 09:00</t>
   </si>
@@ -87,7 +84,52 @@
     <t>Aktivitätsdiagramm fertigstellen, Netzwerkdiagramm erstellen</t>
   </si>
   <si>
-    <t>Funktionale/ nicht funktionale Anforderungen evaluieren</t>
+    <t>Funktionale/ nicht funktionale Anforderungen, Tagesabschluss</t>
+  </si>
+  <si>
+    <t>Tagesabschluss:</t>
+  </si>
+  <si>
+    <t>Zum Tagesabschluss gehören Aufgaben wie: Arbeitsjournal erweitern, Standortbestimmung, evt anpassung des Zeitplan</t>
+  </si>
+  <si>
+    <t>Klassendiagram erstellen</t>
+  </si>
+  <si>
+    <t>Überlegungen welche Patterns verwendet werden, Recherche dazu</t>
+  </si>
+  <si>
+    <t>Überarbeitung der eben erarbeiteten Diagramme</t>
+  </si>
+  <si>
+    <t>Tagesabschluss</t>
+  </si>
+  <si>
+    <t>Programmieren</t>
+  </si>
+  <si>
+    <t>Review vorheriger Tag, erweiterung Dokumentation</t>
+  </si>
+  <si>
+    <t>Review vorheriger Tag, Erstellung User Stories</t>
+  </si>
+  <si>
+    <t>Zeitplanung-Soll</t>
+  </si>
+  <si>
+    <t>Dokumentieren</t>
+  </si>
+  <si>
+    <t>Besuch Experte, Tagesabschluss</t>
+  </si>
+  <si>
+    <t>Überarbeitung Dokumentation (Grammatik, Satzstellung)</t>
+  </si>
+  <si>
+    <t>Puffer</t>
+  </si>
+  <si>
+    <t>Erstellung Visual Studio Projekt, Einrichtung Entwicklungsumgebung</t>
   </si>
 </sst>
 </file>
@@ -154,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -191,42 +233,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -541,384 +610,740 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D82DBC-A1CC-499A-A9F9-0CE22B192A6F}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>43962</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="5">
         <v>43963</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="5">
         <v>43964</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="5">
         <v>43966</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>43969</v>
       </c>
-      <c r="G3" s="10">
-        <v>43970</v>
-      </c>
-      <c r="H3" s="10">
-        <v>43971</v>
-      </c>
-      <c r="I3" s="10">
-        <v>43973</v>
-      </c>
-      <c r="J3" s="10">
-        <v>43976</v>
-      </c>
-      <c r="K3" s="10">
-        <v>43977</v>
-      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <v>43970</v>
+      </c>
+      <c r="C25" s="5">
+        <v>43971</v>
+      </c>
+      <c r="D25" s="5">
+        <v>43973</v>
+      </c>
+      <c r="E25" s="5">
+        <v>43976</v>
+      </c>
+      <c r="F25" s="5">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
+      <c r="B46" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="B12:K13"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
+  <mergeCells count="84">
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B34:F35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E20:E21"/>
@@ -928,37 +1353,9 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\PA_OutlookFerienassistent\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07706F3-BF76-4B5E-946B-982326D12873}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1E85D0-C311-4D2E-A73A-C56EA53B08EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE408360-987D-4BE2-AA40-DF582315BAC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung-Soll" sheetId="1" r:id="rId1"/>
+    <sheet name="Zeitplanung-Ist" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="34">
   <si>
     <t>08:00 - 09:00</t>
   </si>
@@ -130,6 +131,9 @@
   </si>
   <si>
     <t>Erstellung Visual Studio Projekt, Einrichtung Entwicklungsumgebung</t>
+  </si>
+  <si>
+    <t>Zeitplan Fertig</t>
   </si>
 </sst>
 </file>
@@ -612,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D82DBC-A1CC-499A-A9F9-0CE22B192A6F}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:B49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,4 +1365,632 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BA9409-676F-4035-BCB8-E0B9C589D17E}">
+  <dimension ref="A1:O49"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>43962</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43963</v>
+      </c>
+      <c r="D3" s="5">
+        <v>43964</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43966</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43969</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <v>43970</v>
+      </c>
+      <c r="C25" s="5">
+        <v>43971</v>
+      </c>
+      <c r="D25" s="5">
+        <v>43973</v>
+      </c>
+      <c r="E25" s="5">
+        <v>43976</v>
+      </c>
+      <c r="F25" s="5">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="84">
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B34:F35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>